--- a/Data/g1.4.xlsx
+++ b/Data/g1.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>2010</v>
       </c>
       <c r="B2" t="n">
-        <v>22527.59844884005</v>
+        <v>23257.86610669455</v>
       </c>
       <c r="C2" t="n">
-        <v>11100.57003489674</v>
+        <v>11418.82435341108</v>
       </c>
       <c r="D2" t="n">
-        <v>13150.38515522722</v>
+        <v>13560.43311809023</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="B3" t="n">
-        <v>24401.57750049225</v>
+        <v>25192.59314690959</v>
       </c>
       <c r="C3" t="n">
-        <v>11904.63527078007</v>
+        <v>12245.94221027538</v>
       </c>
       <c r="D3" t="n">
-        <v>13826.63583809285</v>
+        <v>14257.77027193148</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="B4" t="n">
-        <v>26132.70747759549</v>
+        <v>26979.84043437291</v>
       </c>
       <c r="C4" t="n">
-        <v>12843.00375187773</v>
+        <v>13211.21379819802</v>
       </c>
       <c r="D4" t="n">
-        <v>15222.63677487444</v>
+        <v>15697.30052998581</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2013</v>
       </c>
       <c r="B5" t="n">
-        <v>27097.63407853658</v>
+        <v>27976.04665397691</v>
       </c>
       <c r="C5" t="n">
-        <v>13356.84826103603</v>
+        <v>13739.79027459498</v>
       </c>
       <c r="D5" t="n">
-        <v>15586.88806319155</v>
+        <v>16072.90969847004</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2014</v>
       </c>
       <c r="B6" t="n">
-        <v>28973.72753676657</v>
+        <v>29912.95664259601</v>
       </c>
       <c r="C6" t="n">
-        <v>14334.90767454029</v>
+        <v>14745.8907374447</v>
       </c>
       <c r="D6" t="n">
-        <v>16278.36918442327</v>
+        <v>16785.95219769734</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="B7" t="n">
-        <v>30909.61371459347</v>
+        <v>31911.5976261855</v>
       </c>
       <c r="C7" t="n">
-        <v>15529.90769581952</v>
+        <v>15975.15151436092</v>
       </c>
       <c r="D7" t="n">
-        <v>17139.2604889598</v>
+        <v>17673.68733391674</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>33149.89120404678</v>
+        <v>34224.49724617274</v>
       </c>
       <c r="C8" t="n">
-        <v>17116.36545684164</v>
+        <v>17607.09315882314</v>
       </c>
       <c r="D8" t="n">
-        <v>18042.10813262222</v>
+        <v>18604.68706838786</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2017</v>
       </c>
       <c r="B9" t="n">
-        <v>34105.55151553341</v>
+        <v>35211.13679492509</v>
       </c>
       <c r="C9" t="n">
-        <v>17765.52765969159</v>
+        <v>18274.86689908277</v>
       </c>
       <c r="D9" t="n">
-        <v>18923.71258887035</v>
+        <v>19513.7812222432</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2018</v>
       </c>
       <c r="B10" t="n">
-        <v>35495.54526715261</v>
+        <v>36646.18938775777</v>
       </c>
       <c r="C10" t="n">
-        <v>18552.01810130671</v>
+        <v>19083.90609078256</v>
       </c>
       <c r="D10" t="n">
-        <v>19972.15778864477</v>
+        <v>20594.91845447646</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2019</v>
       </c>
       <c r="B11" t="n">
-        <v>36704.10603689215</v>
+        <v>37893.92756225695</v>
       </c>
       <c r="C11" t="n">
-        <v>19016.36630313983</v>
+        <v>19561.56719637316</v>
       </c>
       <c r="D11" t="n">
-        <v>20326.4017746693</v>
+        <v>20960.20827855906</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2020</v>
       </c>
       <c r="B12" t="n">
-        <v>38782.91609397979</v>
+        <v>40040.12552822272</v>
       </c>
       <c r="C12" t="n">
-        <v>20324.20368652139</v>
+        <v>20906.9003924803</v>
       </c>
       <c r="D12" t="n">
-        <v>20681.4896530169</v>
+        <v>21326.36830874367</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="B13" t="n">
-        <v>43522.00231392332</v>
+        <v>44932.83670743866</v>
       </c>
       <c r="C13" t="n">
-        <v>22322.51976967565</v>
+        <v>22962.50837336785</v>
       </c>
       <c r="D13" t="n">
-        <v>22454.98008122042</v>
+        <v>23155.15872464016</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,27 @@
         <v>2022</v>
       </c>
       <c r="B14" t="n">
-        <v>47251.95921644355</v>
+        <v>48783.70604975082</v>
       </c>
       <c r="C14" t="n">
-        <v>24069.74856943695</v>
+        <v>24759.83037637985</v>
       </c>
       <c r="D14" t="n">
-        <v>24534.05142415514</v>
+        <v>25299.05850862464</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B15" t="n">
+        <v>51300.70579350938</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26237.41536180414</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26006.98661973922</v>
       </c>
     </row>
   </sheetData>
